--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>32.4275870937149</v>
+        <v>38.61517204864801</v>
       </c>
       <c r="R2">
-        <v>291.848283843434</v>
+        <v>347.5365484378321</v>
       </c>
       <c r="S2">
-        <v>0.002802416307378798</v>
+        <v>0.003910994184180296</v>
       </c>
       <c r="T2">
-        <v>0.003080541404723089</v>
+        <v>0.004140172607673976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>11.38043517068145</v>
+        <v>13.60426809452645</v>
       </c>
       <c r="R3">
-        <v>102.423916536133</v>
+        <v>122.438412850738</v>
       </c>
       <c r="S3">
-        <v>0.0009835057112086622</v>
+        <v>0.001377857732465686</v>
       </c>
       <c r="T3">
-        <v>0.001081113486665987</v>
+        <v>0.001458598139649709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.2406633491388889</v>
+        <v>0.5419164153584446</v>
       </c>
       <c r="R4">
-        <v>2.16597014225</v>
+        <v>4.877247738226001</v>
       </c>
       <c r="S4">
-        <v>2.079830646252244E-05</v>
+        <v>5.488599004838348E-05</v>
       </c>
       <c r="T4">
-        <v>2.2862429124903E-05</v>
+        <v>5.810222716836137E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>14.78313252549417</v>
+        <v>5.502475644123667</v>
       </c>
       <c r="R5">
-        <v>88.69879515296499</v>
+        <v>33.014853864742</v>
       </c>
       <c r="S5">
-        <v>0.001277569359195906</v>
+        <v>0.000557297795168437</v>
       </c>
       <c r="T5">
-        <v>0.0009362409379948376</v>
+        <v>0.0003933030762708831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>1.705537640572</v>
+        <v>0.5169095921577779</v>
       </c>
       <c r="R6">
-        <v>15.349838765148</v>
+        <v>4.652186329420001</v>
       </c>
       <c r="S6">
-        <v>0.0001473938373204992</v>
+        <v>5.235326690061606E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001620219014110395</v>
+        <v>5.54210902232789E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>5979.189633261391</v>
+        <v>5956.201128768229</v>
       </c>
       <c r="R7">
-        <v>53812.70669935252</v>
+        <v>53605.81015891406</v>
       </c>
       <c r="S7">
-        <v>0.5167260359130963</v>
+        <v>0.6032516945690068</v>
       </c>
       <c r="T7">
-        <v>0.5680083806026619</v>
+        <v>0.6386013437427225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>2098.391711905399</v>
@@ -948,10 +948,10 @@
         <v>18885.52540714859</v>
       </c>
       <c r="S8">
-        <v>0.1813445797159535</v>
+        <v>0.2125278056784286</v>
       </c>
       <c r="T8">
-        <v>0.1993420766451424</v>
+        <v>0.2249816179727473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>44.37492675969445</v>
+        <v>83.58795244495123</v>
       </c>
       <c r="R9">
-        <v>399.37434083725</v>
+        <v>752.2915720045611</v>
       </c>
       <c r="S9">
-        <v>0.003834914328676968</v>
+        <v>0.008465895101228462</v>
       </c>
       <c r="T9">
-        <v>0.004215509430897133</v>
+        <v>0.008961983921971377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>2725.801105340211</v>
+        <v>848.7299137566978</v>
       </c>
       <c r="R10">
-        <v>16354.80663204126</v>
+        <v>5092.379482540186</v>
       </c>
       <c r="S10">
-        <v>0.2355657683132741</v>
+        <v>0.08596045493363293</v>
       </c>
       <c r="T10">
-        <v>0.1726296222569902</v>
+        <v>0.06066507288589613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>314.477082435212</v>
+        <v>79.7307724643189</v>
       </c>
       <c r="R11">
-        <v>2830.293741916908</v>
+        <v>717.57695217887</v>
       </c>
       <c r="S11">
-        <v>0.02717734444953992</v>
+        <v>0.008075234962447135</v>
       </c>
       <c r="T11">
-        <v>0.02987455312288564</v>
+        <v>0.008548431681971931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>3.550338714296</v>
+        <v>3.309704536788001</v>
       </c>
       <c r="R12">
-        <v>31.953048428664</v>
+        <v>29.78734083109201</v>
       </c>
       <c r="S12">
-        <v>0.0003068229245952686</v>
+        <v>0.0003352111231933826</v>
       </c>
       <c r="T12">
-        <v>0.000337273488112841</v>
+        <v>0.0003548539948350101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>1.245988468252</v>
+        <v>1.166021163272556</v>
       </c>
       <c r="R13">
-        <v>11.213896214268</v>
+        <v>10.494190469453</v>
       </c>
       <c r="S13">
-        <v>0.0001076792544614616</v>
+        <v>0.0001180961198993227</v>
       </c>
       <c r="T13">
-        <v>0.0001183658548249409</v>
+        <v>0.0001250163763110361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.026349059</v>
+        <v>0.04644762986455557</v>
       </c>
       <c r="R14">
-        <v>0.237141531</v>
+        <v>0.4180286687810001</v>
       </c>
       <c r="S14">
-        <v>2.277105367485019E-06</v>
+        <v>4.704275564029139E-06</v>
       </c>
       <c r="T14">
-        <v>2.503096113516376E-06</v>
+        <v>4.979939092705545E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>1.61853324369</v>
+        <v>0.4716169224878334</v>
       </c>
       <c r="R15">
-        <v>9.711199462139998</v>
+        <v>2.829701534927</v>
       </c>
       <c r="S15">
-        <v>0.0001398748523299992</v>
+        <v>4.776596718738444E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001025044644384325</v>
+        <v>3.370998772778988E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>0.186731016912</v>
+        <v>0.04430429625222224</v>
       </c>
       <c r="R16">
-        <v>1.680579152208</v>
+        <v>0.3987386662700001</v>
       </c>
       <c r="S16">
-        <v>1.613743401182755E-05</v>
+        <v>4.487195984996491E-06</v>
       </c>
       <c r="T16">
-        <v>1.773898956715638E-05</v>
+        <v>4.750138974251843E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H17">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I17">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J17">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>179.8557038611791</v>
+        <v>485.092763483094</v>
       </c>
       <c r="R17">
-        <v>1079.134223167074</v>
+        <v>2910.556580898564</v>
       </c>
       <c r="S17">
-        <v>0.01554326432056214</v>
+        <v>0.04913081765841189</v>
       </c>
       <c r="T17">
-        <v>0.01139056777014743</v>
+        <v>0.03467320684252298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H18">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I18">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J18">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>63.12021218088551</v>
+        <v>170.8999767455335</v>
       </c>
       <c r="R18">
-        <v>378.721273085313</v>
+        <v>1025.399860473201</v>
       </c>
       <c r="S18">
-        <v>0.005454895901743118</v>
+        <v>0.01730896897950584</v>
       </c>
       <c r="T18">
-        <v>0.003997510443524214</v>
+        <v>0.01221549915635211</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H19">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I19">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J19">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>1.334810262875</v>
+        <v>6.8076799236295</v>
       </c>
       <c r="R19">
-        <v>8.008861577250002</v>
+        <v>40.846079541777</v>
       </c>
       <c r="S19">
-        <v>0.0001153553003227459</v>
+        <v>0.0006894905597088521</v>
       </c>
       <c r="T19">
-        <v>8.453580527699767E-05</v>
+        <v>0.0004865957851336265</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H20">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I20">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J20">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>81.99286298921625</v>
+        <v>69.12337753781473</v>
       </c>
       <c r="R20">
-        <v>327.971451956865</v>
+        <v>276.4935101512589</v>
       </c>
       <c r="S20">
-        <v>0.007085884486736625</v>
+        <v>0.00700090439065537</v>
       </c>
       <c r="T20">
-        <v>0.003461831688762908</v>
+        <v>0.003293843085204721</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H21">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I21">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J21">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N21">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O21">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P21">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q21">
-        <v>9.459558983538001</v>
+        <v>6.493538400265001</v>
       </c>
       <c r="R21">
-        <v>56.75735390122801</v>
+        <v>38.96123040159</v>
       </c>
       <c r="S21">
-        <v>0.0008175021557868729</v>
+        <v>0.0006576739030501617</v>
       </c>
       <c r="T21">
-        <v>0.0005990899669262796</v>
+        <v>0.0004641417416240243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H22">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I22">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J22">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N22">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O22">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P22">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q22">
-        <v>3.284979538552667</v>
+        <v>3.031709883228</v>
       </c>
       <c r="R22">
-        <v>29.564815846974</v>
+        <v>27.285388949052</v>
       </c>
       <c r="S22">
-        <v>0.0002838903863442234</v>
+        <v>0.0003070554678997414</v>
       </c>
       <c r="T22">
-        <v>0.0003120650159055775</v>
+        <v>0.0003250484601529698</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H23">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I23">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J23">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.203747</v>
       </c>
       <c r="O23">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P23">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q23">
-        <v>1.152860882540333</v>
+        <v>1.068082617482556</v>
       </c>
       <c r="R23">
-        <v>10.375747942863</v>
+        <v>9.612743557342998</v>
       </c>
       <c r="S23">
-        <v>9.963109891689522E-05</v>
+        <v>0.0001081767782864144</v>
       </c>
       <c r="T23">
-        <v>0.000109518962119739</v>
+        <v>0.0001145157760805269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H24">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I24">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J24">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N24">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O24">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P24">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q24">
-        <v>0.02437967941666666</v>
+        <v>0.04254631703455555</v>
       </c>
       <c r="R24">
-        <v>0.21941711475</v>
+        <v>0.382916853311</v>
       </c>
       <c r="S24">
-        <v>2.106910112321495E-06</v>
+        <v>4.309145593623317E-06</v>
       </c>
       <c r="T24">
-        <v>2.316009873317811E-06</v>
+        <v>4.561655095617964E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H25">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I25">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J25">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N25">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O25">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P25">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q25">
-        <v>1.4975609416025</v>
+        <v>0.4320040260728332</v>
       </c>
       <c r="R25">
-        <v>8.985365649614998</v>
+        <v>2.592024156437</v>
       </c>
       <c r="S25">
-        <v>0.000129420335589934</v>
+        <v>4.37539221988907E-05</v>
       </c>
       <c r="T25">
-        <v>9.484308269931364E-05</v>
+        <v>3.087855783556349E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H26">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I26">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J26">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N26">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O26">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P26">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q26">
-        <v>0.172774379892</v>
+        <v>0.04058301015222222</v>
       </c>
       <c r="R26">
-        <v>1.554969419028</v>
+        <v>0.36524709137</v>
       </c>
       <c r="S26">
-        <v>1.493129101179548E-05</v>
+        <v>4.110299352853152E-06</v>
       </c>
       <c r="T26">
-        <v>1.641314321027051E-05</v>
+        <v>4.351156761842475E-06</v>
       </c>
     </row>
   </sheetData>
